--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.379281</v>
+        <v>8.082188</v>
       </c>
       <c r="H2">
-        <v>22.137843</v>
+        <v>24.246564</v>
       </c>
       <c r="I2">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="J2">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.720171333333333</v>
+        <v>3.020000333333333</v>
       </c>
       <c r="N2">
-        <v>5.160513999999999</v>
+        <v>9.060001</v>
       </c>
       <c r="O2">
-        <v>0.1961456356393658</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="P2">
-        <v>0.1961456356393657</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="Q2">
-        <v>12.69362763681133</v>
+        <v>24.40821045406267</v>
       </c>
       <c r="R2">
-        <v>114.242648731302</v>
+        <v>219.673894086564</v>
       </c>
       <c r="S2">
-        <v>0.05382475313071391</v>
+        <v>0.08031202629306283</v>
       </c>
       <c r="T2">
-        <v>0.0538247531307139</v>
+        <v>0.08031202629306285</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.379281</v>
+        <v>8.082188</v>
       </c>
       <c r="H3">
-        <v>22.137843</v>
+        <v>24.246564</v>
       </c>
       <c r="I3">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="J3">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>12.229166</v>
       </c>
       <c r="O3">
-        <v>0.464817562438416</v>
+        <v>0.3934413518781783</v>
       </c>
       <c r="P3">
-        <v>0.464817562438416</v>
+        <v>0.3934413518781784</v>
       </c>
       <c r="Q3">
-        <v>30.08081743654866</v>
+        <v>32.94613956506933</v>
       </c>
       <c r="R3">
-        <v>270.727356928938</v>
+        <v>296.515256085624</v>
       </c>
       <c r="S3">
-        <v>0.1275516045387184</v>
+        <v>0.1084049661069828</v>
       </c>
       <c r="T3">
-        <v>0.1275516045387184</v>
+        <v>0.1084049661069828</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.379281</v>
+        <v>8.082188</v>
       </c>
       <c r="H4">
-        <v>22.137843</v>
+        <v>24.246564</v>
       </c>
       <c r="I4">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="J4">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.973308</v>
+        <v>3.229698</v>
       </c>
       <c r="N4">
-        <v>8.919924</v>
+        <v>9.689094000000001</v>
       </c>
       <c r="O4">
-        <v>0.3390368019222182</v>
+        <v>0.311721195201271</v>
       </c>
       <c r="P4">
-        <v>0.3390368019222182</v>
+        <v>0.3117211952012711</v>
       </c>
       <c r="Q4">
-        <v>21.940875231548</v>
+        <v>26.103026419224</v>
       </c>
       <c r="R4">
-        <v>197.467877083932</v>
+        <v>234.9272377730161</v>
       </c>
       <c r="S4">
-        <v>0.09303583078056375</v>
+        <v>0.0858885967103047</v>
       </c>
       <c r="T4">
-        <v>0.09303583078056374</v>
+        <v>0.08588859671030474</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.29805733333333</v>
+        <v>8.082188</v>
       </c>
       <c r="H5">
-        <v>39.894172</v>
+        <v>24.246564</v>
       </c>
       <c r="I5">
-        <v>0.4945128143207339</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="J5">
-        <v>0.4945128143207338</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.720171333333333</v>
+        <v>0.03476766666666667</v>
       </c>
       <c r="N5">
-        <v>5.160513999999999</v>
+        <v>0.104303</v>
       </c>
       <c r="O5">
-        <v>0.1961456356393658</v>
+        <v>0.003355675548516525</v>
       </c>
       <c r="P5">
-        <v>0.1961456356393657</v>
+        <v>0.003355675548516525</v>
       </c>
       <c r="Q5">
-        <v>22.87493701382311</v>
+        <v>0.2809988183213334</v>
       </c>
       <c r="R5">
-        <v>205.8744331244079</v>
+        <v>2.528989364892</v>
       </c>
       <c r="S5">
-        <v>0.096996530296752</v>
+        <v>0.0009245898845315065</v>
       </c>
       <c r="T5">
-        <v>0.09699653029675198</v>
+        <v>0.0009245898845315068</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>39.894172</v>
       </c>
       <c r="I6">
-        <v>0.4945128143207339</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="J6">
-        <v>0.4945128143207338</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.076388666666666</v>
+        <v>3.020000333333333</v>
       </c>
       <c r="N6">
-        <v>12.229166</v>
+        <v>9.060001</v>
       </c>
       <c r="O6">
-        <v>0.464817562438416</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="P6">
-        <v>0.464817562438416</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="Q6">
-        <v>54.20805020228355</v>
+        <v>40.16013757935244</v>
       </c>
       <c r="R6">
-        <v>487.8724518205519</v>
+        <v>361.441238214172</v>
       </c>
       <c r="S6">
-        <v>0.2298582409471245</v>
+        <v>0.1321416836877989</v>
       </c>
       <c r="T6">
-        <v>0.2298582409471245</v>
+        <v>0.1321416836877989</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>39.894172</v>
       </c>
       <c r="I7">
-        <v>0.4945128143207339</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="J7">
-        <v>0.4945128143207338</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.973308</v>
+        <v>4.076388666666666</v>
       </c>
       <c r="N7">
-        <v>8.919924</v>
+        <v>12.229166</v>
       </c>
       <c r="O7">
-        <v>0.3390368019222182</v>
+        <v>0.3934413518781783</v>
       </c>
       <c r="P7">
-        <v>0.3390368019222182</v>
+        <v>0.3934413518781784</v>
       </c>
       <c r="Q7">
-        <v>39.53922025365866</v>
+        <v>54.20805020228355</v>
       </c>
       <c r="R7">
-        <v>355.852982282928</v>
+        <v>487.8724518205519</v>
       </c>
       <c r="S7">
-        <v>0.1676580430768573</v>
+        <v>0.1783645040809139</v>
       </c>
       <c r="T7">
-        <v>0.1676580430768573</v>
+        <v>0.1783645040809139</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.540576000000001</v>
+        <v>13.29805733333333</v>
       </c>
       <c r="H8">
-        <v>13.621728</v>
+        <v>39.894172</v>
       </c>
       <c r="I8">
-        <v>0.1688497018860685</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="J8">
-        <v>0.1688497018860685</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.720171333333333</v>
+        <v>3.229698</v>
       </c>
       <c r="N8">
-        <v>5.160513999999999</v>
+        <v>9.689094000000001</v>
       </c>
       <c r="O8">
-        <v>0.1961456356393658</v>
+        <v>0.311721195201271</v>
       </c>
       <c r="P8">
-        <v>0.1961456356393657</v>
+        <v>0.3117211952012711</v>
       </c>
       <c r="Q8">
-        <v>7.810568672021333</v>
+        <v>42.948709173352</v>
       </c>
       <c r="R8">
-        <v>70.29511804819199</v>
+        <v>386.538382560168</v>
       </c>
       <c r="S8">
-        <v>0.03311913210396033</v>
+        <v>0.1413171140455006</v>
       </c>
       <c r="T8">
-        <v>0.03311913210396032</v>
+        <v>0.1413171140455007</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.540576000000001</v>
+        <v>13.29805733333333</v>
       </c>
       <c r="H9">
-        <v>13.621728</v>
+        <v>39.894172</v>
       </c>
       <c r="I9">
-        <v>0.1688497018860685</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="J9">
-        <v>0.1688497018860685</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>4.076388666666666</v>
+        <v>0.03476766666666667</v>
       </c>
       <c r="N9">
-        <v>12.229166</v>
+        <v>0.104303</v>
       </c>
       <c r="O9">
-        <v>0.464817562438416</v>
+        <v>0.003355675548516525</v>
       </c>
       <c r="P9">
-        <v>0.464817562438416</v>
+        <v>0.003355675548516525</v>
       </c>
       <c r="Q9">
-        <v>18.50915254653867</v>
+        <v>0.4623424246795556</v>
       </c>
       <c r="R9">
-        <v>166.582372918848</v>
+        <v>4.161081822116</v>
       </c>
       <c r="S9">
-        <v>0.0784843068491356</v>
+        <v>0.00152127731925068</v>
       </c>
       <c r="T9">
-        <v>0.07848430684913557</v>
+        <v>0.001521277319250681</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.540576000000001</v>
+        <v>5.789497666666667</v>
       </c>
       <c r="H10">
-        <v>13.621728</v>
+        <v>17.368493</v>
       </c>
       <c r="I10">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="J10">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.973308</v>
+        <v>3.020000333333333</v>
       </c>
       <c r="N10">
-        <v>8.919924</v>
+        <v>9.060001</v>
       </c>
       <c r="O10">
-        <v>0.3390368019222182</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="P10">
-        <v>0.3390368019222182</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="Q10">
-        <v>13.500530945408</v>
+        <v>17.48428488316589</v>
       </c>
       <c r="R10">
-        <v>121.504778508672</v>
+        <v>157.358563948493</v>
       </c>
       <c r="S10">
-        <v>0.05724626293297262</v>
+        <v>0.05752975417411216</v>
       </c>
       <c r="T10">
-        <v>0.0572462629329726</v>
+        <v>0.05752975417411217</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.673314666666667</v>
+        <v>5.789497666666667</v>
       </c>
       <c r="H11">
-        <v>5.019944000000001</v>
+        <v>17.368493</v>
       </c>
       <c r="I11">
-        <v>0.06222529534320157</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="J11">
-        <v>0.06222529534320156</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1.720171333333333</v>
+        <v>4.076388666666666</v>
       </c>
       <c r="N11">
-        <v>5.160513999999999</v>
+        <v>12.229166</v>
       </c>
       <c r="O11">
-        <v>0.1961456356393658</v>
+        <v>0.3934413518781783</v>
       </c>
       <c r="P11">
-        <v>0.1961456356393657</v>
+        <v>0.3934413518781784</v>
       </c>
       <c r="Q11">
-        <v>2.878387921246222</v>
+        <v>23.60024267409311</v>
       </c>
       <c r="R11">
-        <v>25.905491291216</v>
+        <v>212.402184066838</v>
       </c>
       <c r="S11">
-        <v>0.01220522010793954</v>
+        <v>0.07765351391621375</v>
       </c>
       <c r="T11">
-        <v>0.01220522010793954</v>
+        <v>0.07765351391621376</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.673314666666667</v>
+        <v>5.789497666666667</v>
       </c>
       <c r="H12">
-        <v>5.019944000000001</v>
+        <v>17.368493</v>
       </c>
       <c r="I12">
-        <v>0.06222529534320157</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="J12">
-        <v>0.06222529534320156</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.076388666666666</v>
+        <v>3.229698</v>
       </c>
       <c r="N12">
-        <v>12.229166</v>
+        <v>9.689094000000001</v>
       </c>
       <c r="O12">
-        <v>0.464817562438416</v>
+        <v>0.311721195201271</v>
       </c>
       <c r="P12">
-        <v>0.464817562438416</v>
+        <v>0.3117211952012711</v>
       </c>
       <c r="Q12">
-        <v>6.821080942967112</v>
+        <v>18.698329035038</v>
       </c>
       <c r="R12">
-        <v>61.389728486704</v>
+        <v>168.284961315342</v>
       </c>
       <c r="S12">
-        <v>0.02892341010343747</v>
+        <v>0.0615244077776443</v>
       </c>
       <c r="T12">
-        <v>0.02892341010343747</v>
+        <v>0.06152440777764432</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.789497666666667</v>
+      </c>
+      <c r="H13">
+        <v>17.368493</v>
+      </c>
+      <c r="I13">
+        <v>0.1973699855023315</v>
+      </c>
+      <c r="J13">
+        <v>0.1973699855023315</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03476766666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.104303</v>
+      </c>
+      <c r="O13">
+        <v>0.003355675548516525</v>
+      </c>
+      <c r="P13">
+        <v>0.003355675548516525</v>
+      </c>
+      <c r="Q13">
+        <v>0.2012873250421111</v>
+      </c>
+      <c r="R13">
+        <v>1.811585925379</v>
+      </c>
+      <c r="S13">
+        <v>0.0006623096343612348</v>
+      </c>
+      <c r="T13">
+        <v>0.0006623096343612349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.163479333333334</v>
+      </c>
+      <c r="H14">
+        <v>6.490438</v>
+      </c>
+      <c r="I14">
+        <v>0.0737552563693224</v>
+      </c>
+      <c r="J14">
+        <v>0.0737552563693224</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.020000333333333</v>
+      </c>
+      <c r="N14">
+        <v>9.060001</v>
+      </c>
+      <c r="O14">
+        <v>0.291481777372034</v>
+      </c>
+      <c r="P14">
+        <v>0.291481777372034</v>
+      </c>
+      <c r="Q14">
+        <v>6.533708307826445</v>
+      </c>
+      <c r="R14">
+        <v>58.803374770438</v>
+      </c>
+      <c r="S14">
+        <v>0.02149831321706012</v>
+      </c>
+      <c r="T14">
+        <v>0.02149831321706012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.163479333333334</v>
+      </c>
+      <c r="H15">
+        <v>6.490438</v>
+      </c>
+      <c r="I15">
+        <v>0.0737552563693224</v>
+      </c>
+      <c r="J15">
+        <v>0.0737552563693224</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.076388666666666</v>
+      </c>
+      <c r="N15">
+        <v>12.229166</v>
+      </c>
+      <c r="O15">
+        <v>0.3934413518781783</v>
+      </c>
+      <c r="P15">
+        <v>0.3934413518781784</v>
+      </c>
+      <c r="Q15">
+        <v>8.819182634967556</v>
+      </c>
+      <c r="R15">
+        <v>79.37264371470799</v>
+      </c>
+      <c r="S15">
+        <v>0.02901836777406782</v>
+      </c>
+      <c r="T15">
+        <v>0.02901836777406783</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.673314666666667</v>
-      </c>
-      <c r="H13">
-        <v>5.019944000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.06222529534320157</v>
-      </c>
-      <c r="J13">
-        <v>0.06222529534320156</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.973308</v>
-      </c>
-      <c r="N13">
-        <v>8.919924</v>
-      </c>
-      <c r="O13">
-        <v>0.3390368019222182</v>
-      </c>
-      <c r="P13">
-        <v>0.3390368019222182</v>
-      </c>
-      <c r="Q13">
-        <v>4.975279884917334</v>
-      </c>
-      <c r="R13">
-        <v>44.777518964256</v>
-      </c>
-      <c r="S13">
-        <v>0.02109666513182456</v>
-      </c>
-      <c r="T13">
-        <v>0.02109666513182456</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.163479333333334</v>
+      </c>
+      <c r="H16">
+        <v>6.490438</v>
+      </c>
+      <c r="I16">
+        <v>0.0737552563693224</v>
+      </c>
+      <c r="J16">
+        <v>0.0737552563693224</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.229698</v>
+      </c>
+      <c r="N16">
+        <v>9.689094000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.311721195201271</v>
+      </c>
+      <c r="P16">
+        <v>0.3117211952012711</v>
+      </c>
+      <c r="Q16">
+        <v>6.987384875908002</v>
+      </c>
+      <c r="R16">
+        <v>62.88646388317201</v>
+      </c>
+      <c r="S16">
+        <v>0.02299107666782133</v>
+      </c>
+      <c r="T16">
+        <v>0.02299107666782134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.163479333333334</v>
+      </c>
+      <c r="H17">
+        <v>6.490438</v>
+      </c>
+      <c r="I17">
+        <v>0.0737552563693224</v>
+      </c>
+      <c r="J17">
+        <v>0.0737552563693224</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03476766666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.104303</v>
+      </c>
+      <c r="O17">
+        <v>0.003355675548516525</v>
+      </c>
+      <c r="P17">
+        <v>0.003355675548516525</v>
+      </c>
+      <c r="Q17">
+        <v>0.07521912830155557</v>
+      </c>
+      <c r="R17">
+        <v>0.6769721547140001</v>
+      </c>
+      <c r="S17">
+        <v>0.0002474987103731029</v>
+      </c>
+      <c r="T17">
+        <v>0.0002474987103731029</v>
       </c>
     </row>
   </sheetData>
